--- a/Levels.xlsx
+++ b/Levels.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Pronoun</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Drinks</t>
+  </si>
+  <si>
+    <t>Places</t>
+  </si>
+  <si>
+    <t>地方</t>
   </si>
 </sst>
 </file>
@@ -401,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,6 +521,20 @@
         <v>19</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Levels.xlsx
+++ b/Levels.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Pronoun</t>
   </si>
@@ -93,16 +93,32 @@
   </si>
   <si>
     <t>地方</t>
+  </si>
+  <si>
+    <t>My Favorites</t>
+  </si>
+  <si>
+    <t>我的最愛</t>
+  </si>
+  <si>
+    <t>我的最爱</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,8 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,100 +455,114 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
     </row>

--- a/Levels.xlsx
+++ b/Levels.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,7 +437,7 @@
         <v>15</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
